--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="A78D4B6D18C" lockStructure="1"/>
+  <workbookProtection workbookPassword="219BB1A9514C" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="A78D4B6D18C"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="219BB1A9514C"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>

--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="219BB1A9514C" lockStructure="1"/>
+  <workbookProtection workbookPassword="9E3D32ECB6F" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="219BB1A9514C"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="9E3D32ECB6F"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>

--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="9E3D32ECB6F" lockStructure="1"/>
+  <workbookProtection workbookPassword="29449F1F39B9" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="9E3D32ECB6F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="29449F1F39B9"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>

--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="9E3D32ECB6F" lockStructure="1"/>
+  <workbookProtection workbookPassword="26BDC803DDF" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="9E3D32ECB6F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="26BDC803DDF"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>
@@ -39441,17 +39441,14 @@
     <mergeCell ref="G111:H111"/>
     <mergeCell ref="A1615:B1615"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
+  <dataValidations count="3">
+    <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A4), AND(LEN($A4) = 8, LEFT($A4, 2) = "20", ISNUMBER(MID($A4, 3, 2) * 1), MID($A4, 5, 1) = "-", ISNUMBER(RIGHT($A4, 3) * 1)))</formula1>
-    </dataValidation>
-    <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must by Y or N" error="Entries must be Y or N in this column" type="list">
-      <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>
     </dataValidation>
   </dataValidations>

--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="26BDC803DDF" lockStructure="1"/>
+  <workbookProtection workbookPassword="10C4E5662547" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="26BDC803DDF"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="10C4E5662547"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>

--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="10C4E5662547" lockStructure="1"/>
+  <workbookProtection workbookPassword="283775290F8" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="10C4E5662547"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="283775290F8"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>

--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="9E3D32ECB6F" lockStructure="1"/>
+  <workbookProtection workbookPassword="283775290F8" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="9E3D32ECB6F"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="283775290F8"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>
@@ -39441,17 +39441,14 @@
     <mergeCell ref="G111:H111"/>
     <mergeCell ref="A1615:B1615"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
+  <dataValidations count="3">
+    <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A4), AND(LEN($A4) = 8, LEFT($A4, 2) = "20", ISNUMBER(MID($A4, 3, 2) * 1), MID($A4, 5, 1) = "-", ISNUMBER(RIGHT($A4, 3) * 1)))</formula1>
-    </dataValidation>
-    <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must by Y or N" error="Entries must be Y or N in this column" type="list">
-      <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>
     </dataValidation>
   </dataValidations>

--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="29449F1F39B9" lockStructure="1"/>
+  <workbookProtection workbookPassword="13D314CD941F" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="3000"/>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="29449F1F39B9"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="13D314CD941F"/>
   <mergeCells count="8996">
     <mergeCell ref="A1310:B1310"/>
     <mergeCell ref="G2565:H2565"/>
@@ -39441,17 +39441,14 @@
     <mergeCell ref="G111:H111"/>
     <mergeCell ref="A1615:B1615"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
+  <dataValidations count="3">
+    <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A4), AND(LEN($A4) = 8, LEFT($A4, 2) = "20", ISNUMBER(MID($A4, 3, 2) * 1), MID($A4, 5, 1) = "-", ISNUMBER(RIGHT($A4, 3) * 1)))</formula1>
-    </dataValidation>
-    <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must by Y or N" error="Entries must be Y or N in this column" type="list">
-      <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>
     </dataValidation>
   </dataValidations>

--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="529C2E9819F5" lockStructure="1"/>
+  <workbookProtection workbookPassword="420B9240418" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -15459,7 +15459,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="529C2E9819F5"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="420B9240418"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -15500,7 +15500,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="529C2E9819F5"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="420B9240418"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="420B9240418" lockStructure="1"/>
+  <workbookProtection workbookPassword="21E7E73AB01A" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -15459,7 +15459,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="420B9240418"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="21E7E73AB01A"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -15500,7 +15500,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="420B9240418"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="21E7E73AB01A"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="284DBD32DDF" lockStructure="1"/>
+  <workbookProtection workbookPassword="5A59BA8B20D7" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -15459,7 +15459,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="284DBD32DDF"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="5A59BA8B20D7"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -15500,7 +15500,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="284DBD32DDF"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="5A59BA8B20D7"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="5A59BA8B20D7" lockStructure="1"/>
+  <workbookProtection workbookPassword="921D2B7A737" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -15459,7 +15459,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="5A59BA8B20D7"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="921D2B7A737"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -15500,7 +15500,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="5A59BA8B20D7"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="921D2B7A737"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="921D2B7A737" lockStructure="1"/>
+  <workbookProtection workbookPassword="82F286B674F" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -15459,7 +15459,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="921D2B7A737"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="82F286B674F"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -15500,7 +15500,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="921D2B7A737"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="82F286B674F"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
+++ b/backend/schemas/output/excel/xlsx/findings-text-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="284DBD32DDF" lockStructure="1"/>
+  <workbookProtection workbookPassword="1338520C88023" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -15459,7 +15459,7 @@
       <c r="C2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="284DBD32DDF"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="1338520C88023"/>
   <dataValidations count="2">
     <dataValidation sqref="A2:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($A2), AND(LEN($A2) = 8, LEFT($A2, 2) = "20", ISNUMBER(MID($A2, 3, 2) * 1), MID($A2, 5, 1) = "-", ISNUMBER(RIGHT($A2, 3) * 1)))</formula1>
@@ -15500,7 +15500,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="284DBD32DDF"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="1338520C88023"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>
